--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -190,19 +190,19 @@
     <t xml:space="preserve">Baco Exu do Blues</t>
   </si>
   <si>
+    <t xml:space="preserve">cancoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">cancoes_id</t>
   </si>
   <si>
-    <t xml:space="preserve">cancoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">duracao_segundos</t>
   </si>
   <si>
     <t xml:space="preserve">Blind Guardian</t>
   </si>
   <si>
-    <t xml:space="preserve">"BREAK MY SOUL" </t>
+    <t xml:space="preserve">"BREAK MY SOUL"</t>
   </si>
   <si>
     <t xml:space="preserve">Nina Simone</t>
@@ -253,9 +253,6 @@
     <t xml:space="preserve">"2020-03-06 11:22:33"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Feeling Good" </t>
-  </si>
-  <si>
     <t xml:space="preserve">"2022-08-05 08:05:17"</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">"2017-01-24 00:31:17"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"BREAK MY SOUL"</t>
   </si>
   <si>
     <t xml:space="preserve">"2017-10-12 12:35:20"</t>
@@ -579,14 +573,14 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37:A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.53"/>
@@ -1066,7 +1060,9 @@
       <c r="I13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -1105,7 +1101,9 @@
       <c r="I14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -1144,7 +1142,9 @@
       <c r="I15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="17" t="n">
+        <v>7.99</v>
+      </c>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -1183,7 +1183,9 @@
       <c r="I16" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="17" t="n">
+        <v>5.99</v>
+      </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -1222,7 +1224,9 @@
       <c r="I17" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="17" t="n">
+        <v>6.99</v>
+      </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -1467,8 +1471,6 @@
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="31"/>
       <c r="G24" s="17"/>
       <c r="H24" s="10" t="s">
         <v>59</v>
@@ -1496,11 +1498,11 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="n">
+      <c r="A25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="32" t="n">
         <v>1</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>1</v>
@@ -1508,8 +1510,6 @@
       <c r="D25" s="11" t="n">
         <v>279</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="31"/>
       <c r="G25" s="17"/>
       <c r="H25" s="10" t="s">
         <v>61</v>
@@ -1537,11 +1537,11 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32" t="n">
+      <c r="A26" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="32" t="n">
         <v>2</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>62</v>
       </c>
       <c r="C26" s="32" t="n">
         <v>1</v>
@@ -1549,8 +1549,6 @@
       <c r="D26" s="33" t="n">
         <v>369</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="31"/>
       <c r="G26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -1572,11 +1570,11 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32" t="n">
+      <c r="A27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="32" t="n">
         <v>3</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="32" t="n">
         <v>1</v>
@@ -1584,8 +1582,6 @@
       <c r="D27" s="33" t="n">
         <v>116</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="31"/>
       <c r="G27" s="17"/>
       <c r="H27" s="3" t="s">
         <v>0</v>
@@ -1613,11 +1609,11 @@
       <c r="AA27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32" t="n">
+      <c r="A28" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="32" t="n">
         <v>4</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>2</v>
@@ -1625,8 +1621,6 @@
       <c r="D28" s="10" t="n">
         <v>203</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="31"/>
       <c r="G28" s="17"/>
       <c r="H28" s="12" t="n">
         <v>1</v>
@@ -1654,11 +1648,11 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="n">
+      <c r="A29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="32" t="n">
         <v>5</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>3</v>
@@ -1692,11 +1686,11 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32" t="n">
+      <c r="A30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="32" t="n">
         <v>6</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>4</v>
@@ -1730,11 +1724,11 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="n">
+      <c r="A31" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="32" t="n">
         <v>7</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>5</v>
@@ -1768,11 +1762,11 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="n">
+      <c r="A32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="32" t="n">
         <v>8</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>6</v>
@@ -1806,11 +1800,11 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="n">
+      <c r="A33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="32" t="n">
         <v>9</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>7</v>
@@ -1844,11 +1838,11 @@
       <c r="AA33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32" t="n">
+      <c r="A34" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="32" t="n">
         <v>10</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>70</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>8</v>
@@ -1914,10 +1908,13 @@
       <c r="B36" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="34" t="n">
@@ -1952,10 +1949,13 @@
       <c r="B37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="E37" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -1990,14 +1990,15 @@
       <c r="B38" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="E38" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="31"/>
       <c r="G38" s="17"/>
       <c r="H38" s="32" t="n">
         <v>6</v>
@@ -2031,14 +2032,15 @@
       <c r="B39" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="E39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="31"/>
       <c r="G39" s="17"/>
       <c r="H39" s="12" t="n">
         <v>7</v>
@@ -2070,16 +2072,17 @@
         <v>4</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="37" t="n">
+      <c r="E40" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="31"/>
       <c r="G40" s="17"/>
       <c r="H40" s="12" t="n">
         <v>9</v>
@@ -2113,14 +2116,15 @@
       <c r="B41" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="10" t="n">
+      <c r="C41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="31"/>
       <c r="G41" s="17"/>
       <c r="H41" s="12" t="n">
         <v>10</v>
@@ -2154,14 +2158,15 @@
       <c r="B42" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="10" t="n">
+      <c r="C42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="31"/>
       <c r="G42" s="17"/>
       <c r="J42" s="20"/>
       <c r="K42" s="17"/>
@@ -2189,14 +2194,15 @@
       <c r="B43" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="37" t="n">
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="31"/>
       <c r="G43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -2223,14 +2229,15 @@
       <c r="B44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="10" t="n">
+      <c r="C44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="31"/>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
@@ -2255,14 +2262,15 @@
       <c r="B45" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="10" t="n">
+      <c r="C45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="31"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
@@ -2287,14 +2295,15 @@
       <c r="B46" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="37" t="n">
+      <c r="C46" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="31"/>
+      <c r="D46" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="37" t="n">
+        <v>5</v>
+      </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
@@ -2319,14 +2328,15 @@
       <c r="B47" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="10" t="n">
+      <c r="C47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="31"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -2349,16 +2359,17 @@
         <v>12</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="37" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="31"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -2383,14 +2394,15 @@
       <c r="B49" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="10" t="n">
+      <c r="C49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="31"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
@@ -2415,14 +2427,15 @@
       <c r="B50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="10" t="n">
+      <c r="C50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="31"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -2447,14 +2460,15 @@
       <c r="B51" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="10" t="n">
+      <c r="C51" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="31"/>
+      <c r="D51" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>9</v>
+      </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
@@ -2479,14 +2493,15 @@
       <c r="B52" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="10" t="n">
+      <c r="C52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="31"/>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
